--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_PSERS\Results\RiskTransfer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -350,11 +357,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -366,7 +372,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -384,19 +390,331 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:D88"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -407,1267 +725,1267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>132.19809605422049</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>146.66744862566892</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>186.61125627465597</v>
       </c>
-      <c r="D3" t="n">
-        <v>197.5396252470472</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>197.53962524704721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>54.413160220435486</v>
       </c>
-      <c r="D4" t="n">
-        <v>50.87217662137829</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>50.872176621378287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.540983599057199</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.5409835990571992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.507586739517</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6.5075867395170004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>103.29148024653242</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>104.67034658828271</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>110.40256014657211</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>111.73295010689927</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7.111079900039698</v>
       </c>
-      <c r="D9" t="n">
-        <v>7.062603518616555</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>7.0626035186165552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.04847638142314281</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4.8476381423142811E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6817021057922888</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.68170210579228885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="n">
-        <v>62.71433783534675</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67.10569183450903</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>62.714337835346747</v>
+      </c>
+      <c r="D12">
+        <v>67.105691834509031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" t="n">
-        <v>86.36218529655822</v>
-      </c>
-      <c r="D13" t="n">
-        <v>90.05559445321646</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>86.362185296558224</v>
+      </c>
+      <c r="D13">
+        <v>90.055594453216457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>23.647847461211477</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>22.949902618707426</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0.6979448425040502</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.9514096098973</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2.9514096098973002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>13.942680967389913</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>23.074837189555545</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" t="n">
-        <v>60.27403914023262</v>
-      </c>
-      <c r="D18" t="n">
-        <v>66.03767500871743</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>60.274039140232617</v>
+      </c>
+      <c r="D18">
+        <v>66.037675008717429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>46.331358172842705</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>42.962837819161884</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>3.3685203536808217</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>7.270497750388186</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>10.02002450090213</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>24.392470900389174</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>11.370674044602264</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>22.299043016993483</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.3506495437001345</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-2.093427883395691</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>3.4440774270958254</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>254.99415767473616</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.3212718977307751</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.700138239481068</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="D27">
+        <v>2.7001382394810678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.9580767391095975</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.95807673910959745</v>
+      </c>
+      <c r="D28">
         <v>2.2884666994367535</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="n">
-        <v>-0.3631951586211777</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.4116715400443143</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>-0.36319515862117768</v>
+      </c>
+      <c r="D29">
+        <v>-0.41167154004431428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.048476381423136594</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4.8476381423136594E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>-13.347199232272466</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2.9989114064558575</v>
       </c>
-      <c r="D32" t="n">
-        <v>7.390265405618138</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32">
+        <v>7.3902654056181376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.6143422645128793</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>6.307751421171119</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-0.3845691419429782</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-1.0825139844470186</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.6979448425040404</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.69794484250404043</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>-181.48747946280304</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C37" t="n">
-        <v>4.833793213456019</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>4.8337932134560191</v>
+      </c>
+      <c r="D37">
         <v>13.869043263660231</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.080123014821803</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>8.0801230148218028</v>
+      </c>
+      <c r="D38">
         <v>13.843758883306618</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.2463298013657838</v>
       </c>
-      <c r="D39" t="n">
-        <v>-0.02528438035361269</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="D39">
+        <v>-2.528438035361269E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>3.2716141817193964</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>100.77886049479555</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>132.39608699363367</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>146.86543956508214</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>193.20854478537038</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>204.13691375776162</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>60.812457791736705</v>
       </c>
-      <c r="D44" t="n">
-        <v>57.27147419267948</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="D44">
+        <v>57.271474192679477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>3.5409835990572276</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>5.822793104636501</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>5.8227931046365011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>103.48947118594563</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>104.86833752769591</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>111.21878696355282</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>112.54917692388</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="n">
-        <v>7.729315777607184</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>7.7293157776071837</v>
+      </c>
+      <c r="D49">
         <v>7.6808393961840835</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.04847638142310018</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>4.8476381423100179E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.6271755847204801</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.62717558472048007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="n">
-        <v>62.71433783534675</v>
-      </c>
-      <c r="D52" t="n">
-        <v>67.10569183450903</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52">
+        <v>62.714337835346747</v>
+      </c>
+      <c r="D52">
+        <v>67.105691834509031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="n">
-        <v>88.42988827301755</v>
-      </c>
-      <c r="D53" t="n">
-        <v>92.12329742967579</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>88.429888273017554</v>
+      </c>
+      <c r="D53">
+        <v>92.123297429675787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>25.715550437670807</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>25.017605595166756</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>0.6979448425040502</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>2.7140964538002974</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>13.942680967389913</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>23.074837189555545</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
       </c>
-      <c r="C58" t="n">
-        <v>63.98739785750708</v>
-      </c>
-      <c r="D58" t="n">
-        <v>69.75103372599189</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="C58">
+        <v>63.987397857507077</v>
+      </c>
+      <c r="D58">
+        <v>69.751033725991888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>50.044716890117165</v>
       </c>
-      <c r="D59" t="n">
-        <v>46.67619653643634</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="D59">
+        <v>46.676196536436343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
       </c>
-      <c r="C60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>3.3685203536808217</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>6.731020900921586</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>6.7310209009215862</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>105</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>10.135060282356308</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>24.507506681843353</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>17.216927367859263</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>28.145296340250482</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C64" t="n">
-        <v>7.081867085502955</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64">
+        <v>7.0818670855029549</v>
+      </c>
+      <c r="D64">
         <v>3.6377896584071294</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
       </c>
-      <c r="C65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
         <v>3.4440774270958254</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>105</v>
       </c>
-      <c r="C66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>48.63233643774644</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>48.632336437746439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>106</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1.4363076791849527</v>
       </c>
-      <c r="D67" t="n">
-        <v>2.815174020935245</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="D67">
+        <v>2.8151740209352449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
-      <c r="C68" t="n">
-        <v>1.533260442031226</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68">
+        <v>1.5332604420312259</v>
+      </c>
+      <c r="D68">
         <v>2.863650402358382</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
-      <c r="C69" t="n">
-        <v>0.09695276284627319</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.04847638142313704</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69">
+        <v>9.6952762846273188E-2</v>
+      </c>
+      <c r="D69">
+        <v>4.8476381423137038E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
-      <c r="C70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.04847638142313615</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>4.847638142313615E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
-      <c r="C71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
         <v>49.999999999999545</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>107</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>2.9989114064558575</v>
       </c>
-      <c r="D72" t="n">
-        <v>7.390265405618138</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="D72">
+        <v>7.3902654056181376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
-      <c r="C73" t="n">
-        <v>4.394801091463936</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8.088210248122175</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="C73">
+        <v>4.3948010914639362</v>
+      </c>
+      <c r="D73">
+        <v>8.0882102481221754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1.3958896850080786</v>
       </c>
-      <c r="D74" t="n">
-        <v>0.6979448425040378</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="D74">
+        <v>0.69794484250403777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
-      <c r="C75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.6979448425040409</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0.69794484250404087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>50.00000000000011</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>50.000000000000107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>108</v>
       </c>
-      <c r="C77" t="n">
-        <v>4.833793213456019</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77">
+        <v>4.8337932134560191</v>
+      </c>
+      <c r="D77">
         <v>13.869043263660231</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>11.570733808206118</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>17.334369676690933</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
-      <c r="C79" t="n">
-        <v>6.736940594750099</v>
-      </c>
-      <c r="D79" t="n">
-        <v>3.465326413030702</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>6.7369405947500987</v>
+      </c>
+      <c r="D79">
+        <v>3.4653264130307022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
-      <c r="C80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
         <v>3.2716141817193964</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
       </c>
-      <c r="C81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>48.56231305154851</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>48.562313051548507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>109</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>132.19809605422049</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>100.54492364918151</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>186.61125627465597</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>124.89693053807167</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>54.413160220435486</v>
       </c>
-      <c r="D84" t="n">
-        <v>24.35200688889016</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84">
+        <v>24.352006888890159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
-      <c r="C85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>30.061153331545327</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
       </c>
-      <c r="C86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>55.24610812855438</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>55.246108128554383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>110</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>132.39608699363367</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>100.74291458859473</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>193.20854478537038</v>
       </c>
-      <c r="D88" t="n">
-        <v>131.494219048786</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="D88">
+        <v>131.49421904878599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>60.812457791736705</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>30.751304460191264</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
       </c>
-      <c r="C90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>30.06115333154544</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>30.061153331545441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>110</v>
       </c>
-      <c r="C91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
         <v>49.43255777376293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -1,20 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_PSERS\Results\RiskTransfer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -357,10 +350,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -372,7 +366,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -390,331 +384,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87:D88"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -725,1267 +407,1267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>132.19809605422049</v>
       </c>
-      <c r="D2">
-        <v>146.66744862566892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="n">
+        <v>139.58159226751874</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>186.61125627465597</v>
       </c>
-      <c r="D3">
-        <v>197.53962524704721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="n">
+        <v>190.453768888897</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>54.413160220435486</v>
       </c>
-      <c r="D4">
-        <v>50.872176621378287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="n">
+        <v>50.87217662137826</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>3.5409835990571992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.5409835990572276</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>6.5075867395170004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.507586739517053</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>103.29148024653242</v>
       </c>
-      <c r="D7">
-        <v>104.67034658828271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="n">
+        <v>103.90977377453497</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>110.40256014657211</v>
       </c>
-      <c r="D8">
-        <v>111.73295010689927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="n">
+        <v>110.97237729315151</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>7.111079900039698</v>
       </c>
-      <c r="D9">
-        <v>7.0626035186165552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="n">
+        <v>7.062603518616541</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>4.8476381423142811E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04847638142315702</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.68170210579228885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6817021057924887</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C12">
-        <v>62.714337835346747</v>
-      </c>
-      <c r="D12">
-        <v>67.105691834509031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="n">
+        <v>62.71433783534675</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64.96914124216775</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
-      <c r="C13">
-        <v>86.362185296558224</v>
-      </c>
-      <c r="D13">
-        <v>90.055594453216457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="n">
+        <v>86.36218529655822</v>
+      </c>
+      <c r="D13" t="n">
+        <v>87.91904386087519</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>23.647847461211477</v>
       </c>
-      <c r="D14">
-        <v>22.949902618707426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="n">
+        <v>22.94990261870744</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.6979448425040502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.697944842504036</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2.9514096098973002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.9514096098972398</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>13.942680967389913</v>
       </c>
-      <c r="D17">
-        <v>23.074837189555545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="n">
+        <v>18.88610423749437</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="C18">
-        <v>60.274039140232617</v>
-      </c>
-      <c r="D18">
-        <v>66.037675008717429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="n">
+        <v>60.27403914023262</v>
+      </c>
+      <c r="D18" t="n">
+        <v>61.848942056656256</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>46.331358172842705</v>
       </c>
-      <c r="D19">
-        <v>42.962837819161884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="n">
+        <v>42.96283781916189</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>3.3685203536808217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.3685203536808146</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>7.270497750388186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.270497750388171</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>10.02002450090213</v>
       </c>
-      <c r="D22">
-        <v>24.392470900389174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="n">
+        <v>17.306614542238975</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>11.370674044602264</v>
       </c>
-      <c r="D23">
-        <v>22.299043016993483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="n">
+        <v>15.213186658843282</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>1.3506495437001345</v>
       </c>
-      <c r="D24">
-        <v>-2.093427883395691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="n">
+        <v>-2.0934278833956927</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>3.4440774270958254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.444077427095827</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>97</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>254.99415767473616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>254.99415767473633</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>1.3212718977307751</v>
       </c>
-      <c r="D27">
-        <v>2.7001382394810678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="n">
+        <v>1.9395654257333144</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="C28">
-        <v>0.95807673910959745</v>
-      </c>
-      <c r="D28">
-        <v>2.2884666994367535</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="n">
+        <v>0.9580767391095975</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.5278938856889999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="C29">
-        <v>-0.36319515862117768</v>
-      </c>
-      <c r="D29">
-        <v>-0.41167154004431428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="n">
+        <v>-0.3631951586211777</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.4116715400443145</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>4.8476381423136594E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.048476381423136816</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>-13.347199232272466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-13.347199232272528</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>2.9989114064558575</v>
       </c>
-      <c r="D32">
-        <v>7.3902654056181376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="n">
+        <v>5.253714813276869</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>2.6143422645128793</v>
       </c>
-      <c r="D33">
-        <v>6.307751421171119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="n">
+        <v>4.171200828829852</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>-0.3845691419429782</v>
       </c>
-      <c r="D34">
-        <v>-1.0825139844470186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="n">
+        <v>-1.0825139844470177</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0.69794484250404043</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6979448425040395</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>-181.48747946280304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-181.4874794628028</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C37">
-        <v>4.8337932134560191</v>
-      </c>
-      <c r="D37">
-        <v>13.869043263660231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="n">
+        <v>4.833793213456019</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.680310311599053</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38">
-        <v>8.0801230148218028</v>
-      </c>
-      <c r="D38">
-        <v>13.843758883306618</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="n">
+        <v>8.080123014821803</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.65502593124544</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>3.2463298013657838</v>
       </c>
-      <c r="D39">
-        <v>-2.528438035361269E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="n">
+        <v>-0.02528438035361269</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
         <v>3.2716141817193964</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
         <v>100.77886049479555</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>132.39608699363367</v>
       </c>
-      <c r="D42">
-        <v>146.86543956508214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="n">
+        <v>139.77958320693193</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>193.20854478537038</v>
       </c>
-      <c r="D43">
-        <v>204.13691375776162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="n">
+        <v>197.0510573996114</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>60.812457791736705</v>
       </c>
-      <c r="D44">
-        <v>57.271474192679477</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="n">
+        <v>57.27147419267948</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="n">
         <v>3.5409835990572276</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>5.8227931046365011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.822793104636501</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>103.48947118594563</v>
       </c>
-      <c r="D47">
-        <v>104.86833752769591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="n">
+        <v>104.10776471394816</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>111.21878696355282</v>
       </c>
-      <c r="D48">
-        <v>112.54917692388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="n">
+        <v>111.78860411013224</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
-      <c r="C49">
-        <v>7.7293157776071837</v>
-      </c>
-      <c r="D49">
+      <c r="C49" t="n">
+        <v>7.729315777607184</v>
+      </c>
+      <c r="D49" t="n">
         <v>7.6808393961840835</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>4.8476381423100179E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.04847638142310018</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0.62717558472048007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.6271755847204801</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52">
-        <v>62.714337835346747</v>
-      </c>
-      <c r="D52">
-        <v>67.105691834509031</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="n">
+        <v>62.71433783534675</v>
+      </c>
+      <c r="D52" t="n">
+        <v>64.96914124216775</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="C53">
-        <v>88.429888273017554</v>
-      </c>
-      <c r="D53">
-        <v>92.123297429675787</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="n">
+        <v>88.42988827301755</v>
+      </c>
+      <c r="D53" t="n">
+        <v>89.98674683733452</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>25.715550437670807</v>
       </c>
-      <c r="D54">
-        <v>25.017605595166756</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="n">
+        <v>25.01760559516677</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0.6979448425040502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.697944842504036</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>2.7140964538002974</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.714096453800242</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>13.942680967389913</v>
       </c>
-      <c r="D57">
-        <v>23.074837189555545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="n">
+        <v>18.88610423749437</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
       </c>
-      <c r="C58">
-        <v>63.987397857507077</v>
-      </c>
-      <c r="D58">
-        <v>69.751033725991888</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="n">
+        <v>63.98739785750708</v>
+      </c>
+      <c r="D58" t="n">
+        <v>65.5623007739307</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>50.044716890117165</v>
       </c>
-      <c r="D59">
-        <v>46.676196536436343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="n">
+        <v>46.676196536436336</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>3.3685203536808217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.368520353680829</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>6.7310209009215862</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.7310209009215995</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>105</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>10.135060282356308</v>
       </c>
-      <c r="D62">
-        <v>24.507506681843353</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="n">
+        <v>17.421650323693154</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>17.216927367859263</v>
       </c>
-      <c r="D63">
-        <v>28.145296340250482</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="n">
+        <v>21.059439982100283</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C64">
-        <v>7.0818670855029549</v>
-      </c>
-      <c r="D64">
+      <c r="C64" t="n">
+        <v>7.081867085502955</v>
+      </c>
+      <c r="D64" t="n">
         <v>3.6377896584071294</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="n">
         <v>3.4440774270958254</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>105</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>48.632336437746439</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>48.63233643774644</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>106</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>1.4363076791849527</v>
       </c>
-      <c r="D67">
-        <v>2.8151740209352449</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="n">
+        <v>2.054601207187492</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
-      <c r="C68">
-        <v>1.5332604420312259</v>
-      </c>
-      <c r="D68">
-        <v>2.863650402358382</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="n">
+        <v>1.533260442031226</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.1030775886106285</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
-      <c r="C69">
-        <v>9.6952762846273188E-2</v>
-      </c>
-      <c r="D69">
-        <v>4.8476381423137038E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="n">
+        <v>0.09695276284627319</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.048476381423136594</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>4.847638142313615E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.048476381423136594</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>49.999999999999545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>107</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>2.9989114064558575</v>
       </c>
-      <c r="D72">
-        <v>7.3902654056181376</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="n">
+        <v>5.253714813276869</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
-      <c r="C73">
-        <v>4.3948010914639362</v>
-      </c>
-      <c r="D73">
-        <v>8.0882102481221754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="n">
+        <v>4.394801091463936</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.951659655780908</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>1.3958896850080786</v>
       </c>
-      <c r="D74">
-        <v>0.69794484250403777</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="n">
+        <v>0.6979448425040387</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0.69794484250404087</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.69794484250404</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>50.000000000000107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>50.00000000000005</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>108</v>
       </c>
-      <c r="C77">
-        <v>4.8337932134560191</v>
-      </c>
-      <c r="D77">
-        <v>13.869043263660231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="n">
+        <v>4.833793213456019</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.680310311599053</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>11.570733808206118</v>
       </c>
-      <c r="D78">
-        <v>17.334369676690933</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="n">
+        <v>13.145636724629755</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
-      <c r="C79">
-        <v>6.7369405947500987</v>
-      </c>
-      <c r="D79">
-        <v>3.4653264130307022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="n">
+        <v>6.736940594750099</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.465326413030702</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="n">
         <v>3.2716141817193964</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>48.562313051548507</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>48.56231305154851</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>109</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>132.19809605422049</v>
       </c>
-      <c r="D82">
-        <v>100.54492364918151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="n">
+        <v>89.06122176156151</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>186.61125627465597</v>
       </c>
-      <c r="D83">
-        <v>124.89693053807167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="n">
+        <v>113.41322865045167</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>54.413160220435486</v>
       </c>
-      <c r="D84">
-        <v>24.352006888890159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="n">
+        <v>24.35200688889016</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
         <v>30.061153331545327</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>55.246108128554383</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>55.24610812855438</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>110</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>132.39608699363367</v>
       </c>
-      <c r="D87">
-        <v>100.74291458859473</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="n">
+        <v>89.25921270097473</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>193.20854478537038</v>
       </c>
-      <c r="D88">
-        <v>131.49421904878599</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="n">
+        <v>120.01051716116599</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>60.812457791736705</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>30.751304460191264</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>30.061153331545441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>30.06115333154544</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>110</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
+      <c r="C91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="n">
         <v>49.43255777376293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_PSERS\Results\RiskTransfer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -350,11 +357,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -366,7 +372,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -384,19 +390,331 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82:D83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -407,1267 +725,1267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>132.19809605422049</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>139.58159226751874</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>186.61125627465597</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>190.453768888897</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>54.413160220435486</v>
       </c>
-      <c r="D4" t="n">
-        <v>50.87217662137826</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>50.872176621378259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>3.5409835990572276</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.507586739517053</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6.5075867395170528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>103.29148024653242</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>103.90977377453497</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>110.40256014657211</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>110.97237729315151</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7.111079900039698</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>7.062603518616541</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.04847638142315702</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4.8476381423157022E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6817021057924887</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.68170210579248869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="n">
-        <v>62.71433783534675</v>
-      </c>
-      <c r="D12" t="n">
-        <v>64.96914124216775</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>62.714337835346747</v>
+      </c>
+      <c r="D12">
+        <v>64.969141242167751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" t="n">
-        <v>86.36218529655822</v>
-      </c>
-      <c r="D13" t="n">
-        <v>87.91904386087519</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>86.362185296558224</v>
+      </c>
+      <c r="D13">
+        <v>87.919043860875192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>23.647847461211477</v>
       </c>
-      <c r="D14" t="n">
-        <v>22.94990261870744</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>22.949902618707441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.697944842504036</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.69794484250403599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>2.9514096098972398</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>13.942680967389913</v>
       </c>
-      <c r="D17" t="n">
-        <v>18.88610423749437</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="D17">
+        <v>18.886104237494369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" t="n">
-        <v>60.27403914023262</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>60.274039140232617</v>
+      </c>
+      <c r="D18">
         <v>61.848942056656256</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>46.331358172842705</v>
       </c>
-      <c r="D19" t="n">
-        <v>42.96283781916189</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <v>42.962837819161891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>3.3685203536808146</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7.270497750388171</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>7.2704977503881709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>10.02002450090213</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>17.306614542238975</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>11.370674044602264</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>15.213186658843282</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.3506495437001345</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-2.0934278833956927</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.444077427095827</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3.4440774270958272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>254.99415767473633</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.3212718977307751</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>1.9395654257333144</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.9580767391095975</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.95807673910959745</v>
+      </c>
+      <c r="D28">
         <v>1.5278938856889999</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="n">
-        <v>-0.3631951586211777</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>-0.36319515862117768</v>
+      </c>
+      <c r="D29">
         <v>-0.4116715400443145</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.048476381423136816</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4.8476381423136816E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>-13.347199232272528</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2.9989114064558575</v>
       </c>
-      <c r="D32" t="n">
-        <v>5.253714813276869</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32">
+        <v>5.2537148132768694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.6143422645128793</v>
       </c>
-      <c r="D33" t="n">
-        <v>4.171200828829852</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="D33">
+        <v>4.1712008288298517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-0.3845691419429782</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-1.0825139844470177</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.6979448425040395</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.69794484250403954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-181.4874794628028</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>-181.48747946280281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C37" t="n">
-        <v>4.833793213456019</v>
-      </c>
-      <c r="D37" t="n">
-        <v>9.680310311599053</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37">
+        <v>4.8337932134560191</v>
+      </c>
+      <c r="D37">
+        <v>9.6803103115990528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.080123014821803</v>
-      </c>
-      <c r="D38" t="n">
-        <v>9.65502593124544</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="C38">
+        <v>8.0801230148218028</v>
+      </c>
+      <c r="D38">
+        <v>9.6550259312454401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.2463298013657838</v>
       </c>
-      <c r="D39" t="n">
-        <v>-0.02528438035361269</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="D39">
+        <v>-2.528438035361269E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>3.2716141817193964</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>100.77886049479555</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>132.39608699363367</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>139.77958320693193</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>193.20854478537038</v>
       </c>
-      <c r="D43" t="n">
-        <v>197.0510573996114</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="D43">
+        <v>197.05105739961141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>60.812457791736705</v>
       </c>
-      <c r="D44" t="n">
-        <v>57.27147419267948</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="D44">
+        <v>57.271474192679477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>3.5409835990572276</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>5.822793104636501</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>5.8227931046365011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>103.48947118594563</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>104.10776471394816</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>111.21878696355282</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>111.78860411013224</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="n">
-        <v>7.729315777607184</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>7.7293157776071837</v>
+      </c>
+      <c r="D49">
         <v>7.6808393961840835</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.04847638142310018</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>4.8476381423100179E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.6271755847204801</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.62717558472048007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="n">
-        <v>62.71433783534675</v>
-      </c>
-      <c r="D52" t="n">
-        <v>64.96914124216775</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52">
+        <v>62.714337835346747</v>
+      </c>
+      <c r="D52">
+        <v>64.969141242167751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="n">
-        <v>88.42988827301755</v>
-      </c>
-      <c r="D53" t="n">
-        <v>89.98674683733452</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>88.429888273017554</v>
+      </c>
+      <c r="D53">
+        <v>89.986746837334522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>25.715550437670807</v>
       </c>
-      <c r="D54" t="n">
-        <v>25.01760559516677</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="D54">
+        <v>25.017605595166771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.697944842504036</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.69794484250403599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.714096453800242</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2.7140964538002419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>13.942680967389913</v>
       </c>
-      <c r="D57" t="n">
-        <v>18.88610423749437</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="D57">
+        <v>18.886104237494369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
       </c>
-      <c r="C58" t="n">
-        <v>63.98739785750708</v>
-      </c>
-      <c r="D58" t="n">
-        <v>65.5623007739307</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="C58">
+        <v>63.987397857507077</v>
+      </c>
+      <c r="D58">
+        <v>65.562300773930701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>50.044716890117165</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>46.676196536436336</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
       </c>
-      <c r="C60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3.368520353680829</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>3.3685203536808288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>6.7310209009215995</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>105</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>10.135060282356308</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>17.421650323693154</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>17.216927367859263</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>21.059439982100283</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C64" t="n">
-        <v>7.081867085502955</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64">
+        <v>7.0818670855029549</v>
+      </c>
+      <c r="D64">
         <v>3.6377896584071294</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
       </c>
-      <c r="C65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
         <v>3.4440774270958254</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>105</v>
       </c>
-      <c r="C66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>48.63233643774644</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>48.632336437746439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>106</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1.4363076791849527</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>2.054601207187492</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
-      <c r="C68" t="n">
-        <v>1.533260442031226</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68">
+        <v>1.5332604420312259</v>
+      </c>
+      <c r="D68">
         <v>2.1030775886106285</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
-      <c r="C69" t="n">
-        <v>0.09695276284627319</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.048476381423136594</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69">
+        <v>9.6952762846273188E-2</v>
+      </c>
+      <c r="D69">
+        <v>4.8476381423136594E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
-      <c r="C70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.048476381423136594</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>4.8476381423136594E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
-      <c r="C71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>107</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>2.9989114064558575</v>
       </c>
-      <c r="D72" t="n">
-        <v>5.253714813276869</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="D72">
+        <v>5.2537148132768694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
-      <c r="C73" t="n">
-        <v>4.394801091463936</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5.951659655780908</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="C73">
+        <v>4.3948010914639362</v>
+      </c>
+      <c r="D73">
+        <v>5.9516596557809081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1.3958896850080786</v>
       </c>
-      <c r="D74" t="n">
-        <v>0.6979448425040387</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="D74">
+        <v>0.69794484250403865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
-      <c r="C75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.69794484250404</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0.69794484250403999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
         <v>50.00000000000005</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>108</v>
       </c>
-      <c r="C77" t="n">
-        <v>4.833793213456019</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9.680310311599053</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="C77">
+        <v>4.8337932134560191</v>
+      </c>
+      <c r="D77">
+        <v>9.6803103115990528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>11.570733808206118</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>13.145636724629755</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
-      <c r="C79" t="n">
-        <v>6.736940594750099</v>
-      </c>
-      <c r="D79" t="n">
-        <v>3.465326413030702</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>6.7369405947500987</v>
+      </c>
+      <c r="D79">
+        <v>3.4653264130307022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
-      <c r="C80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
         <v>3.2716141817193964</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
       </c>
-      <c r="C81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>48.56231305154851</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>48.562313051548507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>109</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>132.19809605422049</v>
       </c>
-      <c r="D82" t="n">
-        <v>89.06122176156151</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="D82">
+        <v>89.061221761561512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>186.61125627465597</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>113.41322865045167</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>54.413160220435486</v>
       </c>
-      <c r="D84" t="n">
-        <v>24.35200688889016</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84">
+        <v>24.352006888890159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
-      <c r="C85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>30.061153331545327</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
       </c>
-      <c r="C86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>55.24610812855438</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>55.246108128554383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>110</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>132.39608699363367</v>
       </c>
-      <c r="D87" t="n">
-        <v>89.25921270097473</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="D87">
+        <v>89.259212700974729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>193.20854478537038</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>120.01051716116599</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>60.812457791736705</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>30.751304460191264</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
       </c>
-      <c r="C90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>30.06115333154544</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>30.061153331545441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>110</v>
       </c>
-      <c r="C91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
         <v>49.43255777376293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -703,15 +703,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:D83"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,10 +747,10 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>186.61125627465597</v>
+        <v>187.61527940022395</v>
       </c>
       <c r="D3">
-        <v>190.453768888897</v>
+        <v>191.45779201446493</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,10 +761,10 @@
         <v>93</v>
       </c>
       <c r="C4">
-        <v>54.413160220435486</v>
+        <v>55.417183346003469</v>
       </c>
       <c r="D4">
-        <v>50.872176621378259</v>
+        <v>51.876199746946185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.5409835990572276</v>
+        <v>3.5409835990572844</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.5075867395170528</v>
+        <v>6.3896852659377359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>94</v>
       </c>
       <c r="C8">
-        <v>110.40256014657211</v>
+        <v>109.71058089049886</v>
       </c>
       <c r="D8">
-        <v>110.97237729315151</v>
+        <v>110.28039803707827</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
         <v>94</v>
       </c>
       <c r="C9">
-        <v>7.111079900039698</v>
+        <v>6.4191006439664449</v>
       </c>
       <c r="D9">
-        <v>7.062603518616541</v>
+        <v>6.3706242625433021</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.8476381423157022E-2</v>
+        <v>4.8476381423142811E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.68170210579248869</v>
+        <v>0.75518961474311197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,10 +887,10 @@
         <v>95</v>
       </c>
       <c r="C13">
-        <v>86.362185296558224</v>
+        <v>86.203371667605651</v>
       </c>
       <c r="D13">
-        <v>87.919043860875192</v>
+        <v>87.760230231922634</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,10 +901,10 @@
         <v>95</v>
       </c>
       <c r="C14">
-        <v>23.647847461211477</v>
+        <v>23.489033832258905</v>
       </c>
       <c r="D14">
-        <v>22.949902618707441</v>
+        <v>22.791088989754883</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.69794484250403599</v>
+        <v>0.69794484250402178</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.9514096098972398</v>
+        <v>2.9713646269498413</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,10 +957,10 @@
         <v>96</v>
       </c>
       <c r="C18">
-        <v>60.274039140232617</v>
+        <v>61.225346420865073</v>
       </c>
       <c r="D18">
-        <v>61.848942056656256</v>
+        <v>62.800249337288705</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>96</v>
       </c>
       <c r="C19">
-        <v>46.331358172842705</v>
+        <v>47.282665453475161</v>
       </c>
       <c r="D19">
-        <v>42.962837819161891</v>
+        <v>43.914145099794339</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.3685203536808146</v>
+        <v>3.3685203536808217</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.2704977503881709</v>
+        <v>7.1242184030326143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>97</v>
       </c>
       <c r="C23">
-        <v>11.370674044602264</v>
+        <v>13.290273915766567</v>
       </c>
       <c r="D23">
-        <v>15.213186658843282</v>
+        <v>17.132786530007582</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,10 +1041,10 @@
         <v>97</v>
       </c>
       <c r="C24">
-        <v>1.3506495437001345</v>
+        <v>3.2702494148644377</v>
       </c>
       <c r="D24">
-        <v>-2.0934278833956927</v>
+        <v>-0.1738280122313931</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.4440774270958272</v>
+        <v>3.4440774270958308</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>254.99415767473633</v>
+        <v>105.31543592489562</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>98</v>
       </c>
       <c r="C28">
-        <v>0.95807673910959745</v>
+        <v>1.120653403495441</v>
       </c>
       <c r="D28">
-        <v>1.5278938856889999</v>
+        <v>1.6904705500748431</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,10 +1111,10 @@
         <v>98</v>
       </c>
       <c r="C29">
-        <v>-0.36319515862117768</v>
+        <v>-0.20061849423533418</v>
       </c>
       <c r="D29">
-        <v>-0.4116715400443145</v>
+        <v>-0.24909487565847122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4.8476381423136816E-2</v>
+        <v>4.8476381423137038E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-13.347199232272528</v>
+        <v>-24.163465889775917</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>99</v>
       </c>
       <c r="C33">
-        <v>2.6143422645128793</v>
+        <v>3.2078285401632316</v>
       </c>
       <c r="D33">
-        <v>4.1712008288298517</v>
+        <v>4.7646871044802026</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>99</v>
       </c>
       <c r="C34">
-        <v>-0.3845691419429782</v>
+        <v>0.20891713370737408</v>
       </c>
       <c r="D34">
-        <v>-1.0825139844470177</v>
+        <v>-0.48902770879666679</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.69794484250403954</v>
+        <v>0.69794484250404087</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>-181.48747946280281</v>
+        <v>334.07735886403543</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,10 +1237,10 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>8.0801230148218028</v>
+        <v>9.2436599459499096</v>
       </c>
       <c r="D38">
-        <v>9.6550259312454401</v>
+        <v>10.818562862373545</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C39">
-        <v>3.2463298013657838</v>
+        <v>4.4098667324938905</v>
       </c>
       <c r="D39">
-        <v>-2.528438035361269E-2</v>
+        <v>1.1382525507744923</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3.2716141817193964</v>
+        <v>3.2716141817193982</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,68 +1282,54 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>100.77886049479555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42">
-        <v>132.39608699363367</v>
-      </c>
-      <c r="D42">
-        <v>139.77958320693193</v>
+        <v>74.188504555311539</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>101</v>
       </c>
       <c r="C43">
-        <v>193.20854478537038</v>
+        <v>132.39608699363367</v>
       </c>
       <c r="D43">
-        <v>197.05105739961141</v>
+        <v>135.20178064003929</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>101</v>
       </c>
       <c r="C44">
-        <v>60.812457791736705</v>
+        <v>192.07048430802024</v>
       </c>
       <c r="D44">
-        <v>57.271474192679477</v>
+        <v>191.3351943553686</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>101</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>59.674397314386567</v>
       </c>
       <c r="D45">
-        <v>3.5409835990572276</v>
+        <v>56.133413715329311</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
@@ -1352,68 +1338,68 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>5.8227931046365011</v>
+        <v>3.540983599057256</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47">
-        <v>103.48947118594563</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>104.10776471394816</v>
+        <v>5.9338405722006007</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
       <c r="C48">
-        <v>111.21878696355282</v>
+        <v>103.48947118594563</v>
       </c>
       <c r="D48">
-        <v>111.78860411013224</v>
+        <v>103.61639825051732</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
       <c r="C49">
-        <v>7.7293157776071837</v>
+        <v>110.31174466913944</v>
       </c>
       <c r="D49">
-        <v>7.6808393961840835</v>
+        <v>110.390195352288</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>6.8222734831938112</v>
       </c>
       <c r="D50">
-        <v>4.8476381423100179E-2</v>
+        <v>6.7737971017706826</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
@@ -1422,68 +1408,68 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.62717558472048007</v>
+        <v>4.8476381423128601E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52">
-        <v>62.714337835346747</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>64.969141242167751</v>
+        <v>0.71056051245302232</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
       </c>
       <c r="C53">
-        <v>88.429888273017554</v>
+        <v>62.714337835346747</v>
       </c>
       <c r="D53">
-        <v>89.986746837334522</v>
+        <v>63.588827234720227</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
       <c r="C54">
-        <v>25.715550437670807</v>
+        <v>87.581840318578458</v>
       </c>
       <c r="D54">
-        <v>25.017605595166771</v>
+        <v>87.758384875447888</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>24.867502483231711</v>
       </c>
       <c r="D55">
-        <v>0.69794484250403599</v>
+        <v>24.16955764072766</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
@@ -1492,68 +1478,68 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2.7140964538002419</v>
+        <v>0.6979448425040502</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57">
-        <v>13.942680967389913</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>18.886104237494369</v>
+        <v>2.8066543593377666</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
       </c>
       <c r="C58">
-        <v>63.987397857507077</v>
+        <v>13.942680967389913</v>
       </c>
       <c r="D58">
-        <v>65.562300773930701</v>
+        <v>16.179982141480096</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
       <c r="C59">
-        <v>50.044716890117165</v>
+        <v>63.700918899048013</v>
       </c>
       <c r="D59">
-        <v>46.676196536436336</v>
+        <v>62.569699719457375</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>49.758237931658101</v>
       </c>
       <c r="D60">
-        <v>3.3685203536808288</v>
+        <v>46.389717577977279</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
@@ -1562,68 +1548,68 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>6.7310209009215995</v>
+        <v>3.3685203536808217</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62">
-        <v>10.135060282356308</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>17.421650323693154</v>
+        <v>6.7697741996157781</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
       <c r="C63">
-        <v>17.216927367859263</v>
+        <v>10.135060282356308</v>
       </c>
       <c r="D63">
-        <v>21.059439982100283</v>
+        <v>12.843847756800502</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
       <c r="C64">
-        <v>7.0818670855029549</v>
+        <v>17.216927367859263</v>
       </c>
       <c r="D64">
-        <v>3.6377896584071294</v>
+        <v>16.481637415207633</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>7.0818670855029549</v>
       </c>
       <c r="D65">
-        <v>3.4440774270958254</v>
+        <v>3.6377896584071312</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>105</v>
@@ -1632,60 +1618,60 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>48.632336437746439</v>
+        <v>3.4440774270958237</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67">
-        <v>1.4363076791849527</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>2.054601207187492</v>
+        <v>48.632336437746417</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
       <c r="C68">
-        <v>1.5332604420312259</v>
+        <v>1.4363076791849527</v>
       </c>
       <c r="D68">
-        <v>2.1030775886106285</v>
+        <v>1.5632347437566467</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
       <c r="C69">
-        <v>9.6952762846273188E-2</v>
+        <v>1.5332604420312259</v>
       </c>
       <c r="D69">
-        <v>4.8476381423136594E-2</v>
+        <v>1.6117111251797833</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>9.6952762846273188E-2</v>
       </c>
       <c r="D70">
         <v>4.8476381423136594E-2</v>
@@ -1693,7 +1679,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
@@ -1702,68 +1688,68 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>4.8476381423136594E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72">
-        <v>2.9989114064558575</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>5.2537148132768694</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
       <c r="C73">
-        <v>4.3948010914639362</v>
+        <v>2.9989114064558575</v>
       </c>
       <c r="D73">
-        <v>5.9516596557809081</v>
+        <v>3.8734008058293385</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
       <c r="C74">
-        <v>1.3958896850080786</v>
+        <v>4.3948010914639362</v>
       </c>
       <c r="D74">
-        <v>0.69794484250403865</v>
+        <v>4.5713456483333772</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1.3958896850080786</v>
       </c>
       <c r="D75">
-        <v>0.69794484250403999</v>
+        <v>0.69794484250403865</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
@@ -1772,68 +1758,68 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>50.00000000000005</v>
+        <v>0.69794484250403999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77">
-        <v>4.8337932134560191</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>9.6803103115990528</v>
+        <v>50.00000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78">
-        <v>11.570733808206118</v>
+        <v>4.8337932134560191</v>
       </c>
       <c r="D78">
-        <v>13.145636724629755</v>
+        <v>6.9741882155847774</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
       <c r="C79">
-        <v>6.7369405947500987</v>
+        <v>11.570733808206118</v>
       </c>
       <c r="D79">
-        <v>3.4653264130307022</v>
+        <v>10.439514628615481</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>6.7369405947500987</v>
       </c>
       <c r="D80">
-        <v>3.2716141817193964</v>
+        <v>3.4653264130307031</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
@@ -1842,68 +1828,68 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>48.562313051548507</v>
+        <v>3.2716141817193956</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82">
-        <v>132.19809605422049</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>89.061221761561512</v>
+        <v>48.562313051548486</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
       </c>
       <c r="C83">
-        <v>186.61125627465597</v>
+        <v>132.19809605422049</v>
       </c>
       <c r="D83">
-        <v>113.41322865045167</v>
+        <v>89.061221761561512</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
       </c>
       <c r="C84">
-        <v>54.413160220435486</v>
+        <v>187.61527940022395</v>
       </c>
       <c r="D84">
-        <v>24.352006888890159</v>
+        <v>114.97094260490947</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>55.417183346003469</v>
       </c>
       <c r="D85">
-        <v>30.061153331545327</v>
+        <v>25.909720843347955</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
@@ -1912,68 +1898,68 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>55.246108128554383</v>
+        <v>29.507462502655514</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87">
-        <v>132.39608699363367</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>89.259212700974729</v>
+        <v>53.246052435437441</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
       <c r="C88">
-        <v>193.20854478537038</v>
+        <v>132.39608699363367</v>
       </c>
       <c r="D88">
-        <v>120.01051716116599</v>
+        <v>75.361874893162522</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
       <c r="C89">
-        <v>60.812457791736705</v>
+        <v>192.07048430802024</v>
       </c>
       <c r="D89">
-        <v>30.751304460191264</v>
+        <v>105.52880970489359</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>59.674397314386567</v>
       </c>
       <c r="D90">
-        <v>30.061153331545441</v>
+        <v>30.166934811731068</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>110</v>
@@ -1982,7 +1968,21 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>49.43255777376293</v>
+        <v>29.5074625026555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>49.447441165093608</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -705,13 +705,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>93</v>
       </c>
       <c r="C2">
-        <v>132.19809605422049</v>
+        <v>129.6023780492273</v>
       </c>
       <c r="D2">
-        <v>139.58159226751874</v>
+        <v>132.40807169563288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,10 +747,10 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>187.61527940022395</v>
+        <v>185.65195267417758</v>
       </c>
       <c r="D3">
-        <v>191.45779201446493</v>
+        <v>184.91666272152591</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,10 +761,10 @@
         <v>93</v>
       </c>
       <c r="C4">
-        <v>55.417183346003469</v>
+        <v>56.049574624950282</v>
       </c>
       <c r="D4">
-        <v>51.876199746946185</v>
+        <v>52.508591025893026</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.5409835990572844</v>
+        <v>3.540983599057256</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.3896852659377359</v>
+        <v>6.3175922792480907</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,10 +803,10 @@
         <v>94</v>
       </c>
       <c r="C7">
-        <v>103.29148024653242</v>
+        <v>103.06300264991499</v>
       </c>
       <c r="D7">
-        <v>103.90977377453497</v>
+        <v>103.18992971448669</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>94</v>
       </c>
       <c r="C8">
-        <v>109.71058089049886</v>
+        <v>109.50427737123097</v>
       </c>
       <c r="D8">
-        <v>110.28039803707827</v>
+        <v>109.58272805437952</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
         <v>94</v>
       </c>
       <c r="C9">
-        <v>6.4191006439664449</v>
+        <v>6.4412747213159776</v>
       </c>
       <c r="D9">
-        <v>6.3706242625433021</v>
+        <v>6.3927983398928205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.8476381423142811E-2</v>
+        <v>4.8476381423157022E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.75518961474311197</v>
+        <v>0.7525898757700108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,10 +873,10 @@
         <v>95</v>
       </c>
       <c r="C12">
-        <v>62.714337835346747</v>
+        <v>61.728360372035169</v>
       </c>
       <c r="D12">
-        <v>64.969141242167751</v>
+        <v>62.602849771408657</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,10 +887,10 @@
         <v>95</v>
       </c>
       <c r="C13">
-        <v>86.203371667605651</v>
+        <v>85.609885391955288</v>
       </c>
       <c r="D13">
-        <v>87.760230231922634</v>
+        <v>85.786429948824747</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -901,10 +901,10 @@
         <v>95</v>
       </c>
       <c r="C14">
-        <v>23.489033832258905</v>
+        <v>23.881525019920119</v>
       </c>
       <c r="D14">
-        <v>22.791088989754883</v>
+        <v>23.18358017741609</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.69794484250402178</v>
+        <v>0.69794484250402888</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.9713646269498413</v>
+        <v>2.9225304578407676</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>96</v>
       </c>
       <c r="C17">
-        <v>13.942680967389913</v>
+        <v>12.561418022325725</v>
       </c>
       <c r="D17">
-        <v>18.886104237494369</v>
+        <v>14.798719196415906</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,10 +957,10 @@
         <v>96</v>
       </c>
       <c r="C18">
-        <v>61.225346420865073</v>
+        <v>60.061809489736966</v>
       </c>
       <c r="D18">
-        <v>62.800249337288705</v>
+        <v>58.930590310146329</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,10 +971,10 @@
         <v>96</v>
       </c>
       <c r="C19">
-        <v>47.282665453475161</v>
+        <v>47.500391467411241</v>
       </c>
       <c r="D19">
-        <v>43.914145099794339</v>
+        <v>44.131871113730426</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.3685203536808217</v>
+        <v>3.3685203536808146</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.1242184030326143</v>
+        <v>7.0915633526765092</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
         <v>97</v>
       </c>
       <c r="C22">
-        <v>10.02002450090213</v>
+        <v>7.6113737560806651</v>
       </c>
       <c r="D22">
-        <v>17.306614542238975</v>
+        <v>10.320161230524857</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>97</v>
       </c>
       <c r="C23">
-        <v>13.290273915766567</v>
+        <v>11.326947189720215</v>
       </c>
       <c r="D23">
-        <v>17.132786530007582</v>
+        <v>10.591657237068583</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,10 +1041,10 @@
         <v>97</v>
       </c>
       <c r="C24">
-        <v>3.2702494148644377</v>
+        <v>3.7155734336395501</v>
       </c>
       <c r="D24">
-        <v>-0.1738280122313931</v>
+        <v>0.27149600654372641</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.4440774270958308</v>
+        <v>3.4440774270958237</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>105.31543592489562</v>
+        <v>92.693025413367067</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,10 +1083,10 @@
         <v>98</v>
       </c>
       <c r="C27">
-        <v>1.3212718977307751</v>
+        <v>1.1194023401233892</v>
       </c>
       <c r="D27">
-        <v>1.9395654257333144</v>
+        <v>1.2463294046950828</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>98</v>
       </c>
       <c r="C28">
-        <v>1.120653403495441</v>
+        <v>0.91434988422754826</v>
       </c>
       <c r="D28">
-        <v>1.6904705500748431</v>
+        <v>0.99280056737610556</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,10 +1111,10 @@
         <v>98</v>
       </c>
       <c r="C29">
-        <v>-0.20061849423533418</v>
+        <v>-0.20505245589584098</v>
       </c>
       <c r="D29">
-        <v>-0.24909487565847122</v>
+        <v>-0.25352883731897724</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4.8476381423137038E-2</v>
+        <v>4.8476381423136261E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-24.163465889775917</v>
+        <v>-23.640966020792483</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>99</v>
       </c>
       <c r="C32">
-        <v>2.9989114064558575</v>
+        <v>2.1086819929803302</v>
       </c>
       <c r="D32">
-        <v>5.2537148132768694</v>
+        <v>2.9831713923538099</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>99</v>
       </c>
       <c r="C33">
-        <v>3.2078285401632316</v>
+        <v>2.6143422645128793</v>
       </c>
       <c r="D33">
-        <v>4.7646871044802026</v>
+        <v>2.7908868213823199</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>99</v>
       </c>
       <c r="C34">
-        <v>0.20891713370737408</v>
+        <v>0.50566027153254911</v>
       </c>
       <c r="D34">
-        <v>-0.48902770879666679</v>
+        <v>-0.19228457097148999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.69794484250404087</v>
+        <v>0.6979448425040391</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>334.07735886403543</v>
+        <v>138.0264343071122</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,10 +1223,10 @@
         <v>100</v>
       </c>
       <c r="C37">
-        <v>4.8337932134560191</v>
+        <v>3.5172414397174676</v>
       </c>
       <c r="D37">
-        <v>9.6803103115990528</v>
+        <v>5.6576364418462255</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,10 +1237,10 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>9.2436599459499096</v>
+        <v>8.0801230148218028</v>
       </c>
       <c r="D38">
-        <v>10.818562862373545</v>
+        <v>6.9489038352311647</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C39">
-        <v>4.4098667324938905</v>
+        <v>4.5628815751043348</v>
       </c>
       <c r="D39">
-        <v>1.1382525507744923</v>
+        <v>1.2912673933849392</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3.2716141817193982</v>
+        <v>3.2716141817193956</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>74.188504555311539</v>
+        <v>71.700615671678634</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>109</v>
       </c>
       <c r="C83">
-        <v>132.19809605422049</v>
+        <v>129.6023780492273</v>
       </c>
       <c r="D83">
         <v>89.061221761561512</v>
@@ -1867,7 +1867,7 @@
         <v>109</v>
       </c>
       <c r="C84">
-        <v>187.61527940022395</v>
+        <v>185.65195267417758</v>
       </c>
       <c r="D84">
         <v>114.97094260490947</v>
@@ -1881,7 +1881,7 @@
         <v>109</v>
       </c>
       <c r="C85">
-        <v>55.417183346003469</v>
+        <v>56.049574624950282</v>
       </c>
       <c r="D85">
         <v>25.909720843347955</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>29.507462502655514</v>
+        <v>30.139853781602326</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>53.246052435437441</v>
+        <v>53.773563819672013</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">

--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -703,15 +703,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,51 +1283,65 @@
         <v>71.700615671678634</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>140.65834996609317</v>
+      </c>
+      <c r="D42">
+        <v>141.66291049405569</v>
+      </c>
+    </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>101</v>
       </c>
       <c r="C43">
-        <v>132.39608699363367</v>
+        <v>200.45229882503492</v>
       </c>
       <c r="D43">
-        <v>135.20178064003929</v>
+        <v>197.82196726298727</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>101</v>
       </c>
       <c r="C44">
-        <v>192.07048430802024</v>
+        <v>59.793948858941746</v>
       </c>
       <c r="D44">
-        <v>191.3351943553686</v>
+        <v>56.159056768931578</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>101</v>
       </c>
       <c r="C45">
-        <v>59.674397314386567</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>56.133413715329311</v>
+        <v>3.6348920900101689</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
@@ -1338,68 +1350,68 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>3.540983599057256</v>
+        <v>6.0790300011547025</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>105.62487454195659</v>
       </c>
       <c r="D47">
-        <v>5.9338405722006007</v>
+        <v>105.72925460005186</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
       <c r="C48">
-        <v>103.48947118594563</v>
+        <v>112.44319792647715</v>
       </c>
       <c r="D48">
-        <v>103.61639825051732</v>
+        <v>112.49910165632733</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
       <c r="C49">
-        <v>110.31174466913944</v>
+        <v>6.8183233845205677</v>
       </c>
       <c r="D49">
-        <v>110.390195352288</v>
+        <v>6.7698470562754665</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
       <c r="C50">
-        <v>6.8222734831938112</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>6.7737971017706826</v>
+        <v>4.8476328245101286E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
@@ -1408,68 +1420,68 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>4.8476381423128601E-2</v>
+        <v>0.7109713856511356</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>66.946584512902035</v>
       </c>
       <c r="D52">
-        <v>0.71056051245302232</v>
+        <v>67.268974465396894</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
       </c>
       <c r="C53">
-        <v>62.714337835346747</v>
+        <v>91.803277694919288</v>
       </c>
       <c r="D53">
-        <v>63.588827234720227</v>
+        <v>91.428006236330518</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
       <c r="C54">
-        <v>87.581840318578458</v>
+        <v>24.856693182017253</v>
       </c>
       <c r="D54">
-        <v>87.758384875447888</v>
+        <v>24.159031770933623</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
       <c r="C55">
-        <v>24.867502483231711</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>24.16955764072766</v>
+        <v>0.69766141108362945</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
@@ -1478,68 +1490,68 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.6979448425040502</v>
+        <v>2.8067346125845791</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>19.70625382003055</v>
       </c>
       <c r="D57">
-        <v>2.8066543593377666</v>
+        <v>20.284044337402939</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
       </c>
       <c r="C58">
-        <v>13.942680967389913</v>
+        <v>69.589258505279275</v>
       </c>
       <c r="D58">
-        <v>16.179982141480096</v>
+        <v>66.704578451643727</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
       <c r="C59">
-        <v>63.700918899048013</v>
+        <v>49.883004685248721</v>
       </c>
       <c r="D59">
-        <v>62.569699719457375</v>
+        <v>46.420534114240787</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
       </c>
       <c r="C60">
-        <v>49.758237931658101</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>46.389717577977279</v>
+        <v>3.462470571007934</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
@@ -1548,68 +1560,68 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>3.3685203536808217</v>
+        <v>6.941182859483698</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>13.73722640663093</v>
       </c>
       <c r="D62">
-        <v>6.7697741996157781</v>
+        <v>14.741786934593465</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
       <c r="C63">
-        <v>10.135060282356308</v>
+        <v>21.007010586651262</v>
       </c>
       <c r="D63">
-        <v>12.843847756800502</v>
+        <v>18.376679024603632</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
       <c r="C64">
-        <v>17.216927367859263</v>
+        <v>7.2697841800203324</v>
       </c>
       <c r="D64">
-        <v>16.481637415207633</v>
+        <v>3.6348920900101671</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
       </c>
       <c r="C65">
-        <v>7.0818670855029549</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>3.6377896584071312</v>
+        <v>3.6348920900101653</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>105</v>
@@ -1618,68 +1630,68 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>3.4440774270958237</v>
+        <v>49.999999999999993</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.4814016921377671</v>
       </c>
       <c r="D67">
-        <v>48.632336437746417</v>
+        <v>1.5857817502330538</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
       <c r="C68">
-        <v>1.4363076791849527</v>
+        <v>1.5783543486280185</v>
       </c>
       <c r="D68">
-        <v>1.5632347437566467</v>
+        <v>1.6342580784781797</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
       <c r="C69">
-        <v>1.5332604420312259</v>
+        <v>9.6952656490251421E-2</v>
       </c>
       <c r="D69">
-        <v>1.6117111251797833</v>
+        <v>4.8476328245125933E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="C70">
-        <v>9.6952762846273188E-2</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>4.8476381423136594E-2</v>
+        <v>4.8476328245125488E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
@@ -1688,68 +1700,68 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>4.8476381423136594E-2</v>
+        <v>49.999999999999773</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>4.1031103002131051</v>
       </c>
       <c r="D72">
-        <v>50</v>
+        <v>4.4255002527079608</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
       <c r="C73">
-        <v>2.9989114064558575</v>
+        <v>5.4984331223803586</v>
       </c>
       <c r="D73">
-        <v>3.8734008058293385</v>
+        <v>5.1231616637915893</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
       <c r="C74">
-        <v>4.3948010914639362</v>
+        <v>1.3953228221672536</v>
       </c>
       <c r="D74">
-        <v>4.5713456483333772</v>
+        <v>0.69766141108362856</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
       <c r="C75">
-        <v>1.3958896850080786</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0.69794484250403865</v>
+        <v>0.697661411083625</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
@@ -1758,68 +1770,68 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.69794484250403999</v>
+        <v>49.999999999999872</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>8.1527144142800676</v>
       </c>
       <c r="D77">
-        <v>50.00000000000005</v>
+        <v>8.7305049316524528</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78">
-        <v>4.8337932134560191</v>
+        <v>15.077655556295955</v>
       </c>
       <c r="D78">
-        <v>6.9741882155847774</v>
+        <v>12.192975502660397</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
       <c r="C79">
-        <v>11.570733808206118</v>
+        <v>6.9249411420158875</v>
       </c>
       <c r="D79">
-        <v>10.439514628615481</v>
+        <v>3.4624705710079446</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
       <c r="C80">
-        <v>6.7369405947500987</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>3.4653264130307031</v>
+        <v>3.4624705710079429</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
@@ -1828,68 +1840,68 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>3.2716141817193956</v>
+        <v>49.999999999999986</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>129.6023780492273</v>
       </c>
       <c r="D82">
-        <v>48.562313051548486</v>
+        <v>89.061221761561512</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
       </c>
       <c r="C83">
-        <v>129.6023780492273</v>
+        <v>185.65195267417758</v>
       </c>
       <c r="D83">
-        <v>89.061221761561512</v>
+        <v>114.97094260490947</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
       </c>
       <c r="C84">
-        <v>185.65195267417758</v>
+        <v>56.049574624950282</v>
       </c>
       <c r="D84">
-        <v>114.97094260490947</v>
+        <v>25.909720843347955</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
       <c r="C85">
-        <v>56.049574624950282</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>25.909720843347955</v>
+        <v>30.139853781602326</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
@@ -1898,68 +1910,68 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>30.139853781602326</v>
+        <v>53.773563819672013</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>140.65834996609317</v>
       </c>
       <c r="D87">
-        <v>53.773563819672013</v>
+        <v>79.500598871526719</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
       <c r="C88">
-        <v>132.39608699363367</v>
+        <v>200.45229882503492</v>
       </c>
       <c r="D88">
-        <v>75.361874893162522</v>
+        <v>105.52880970489359</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
       <c r="C89">
-        <v>192.07048430802024</v>
+        <v>59.793948858941746</v>
       </c>
       <c r="D89">
-        <v>105.52880970489359</v>
+        <v>26.02821083336687</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
       </c>
       <c r="C90">
-        <v>59.674397314386567</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>30.166934811731068</v>
+        <v>33.765738025574876</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>110</v>
@@ -1968,21 +1980,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>29.5074625026555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>49.447441165093608</v>
+        <v>56.470159054439932</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,12 +705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1924,7 +1923,7 @@
         <v>140.65834996609317</v>
       </c>
       <c r="D87">
-        <v>79.500598871526719</v>
+        <v>78.166003839063848</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,7 +1937,7 @@
         <v>200.45229882503492</v>
       </c>
       <c r="D88">
-        <v>105.52880970489359</v>
+        <v>108.10993201160909</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,7 +1951,7 @@
         <v>59.793948858941746</v>
       </c>
       <c r="D89">
-        <v>26.02821083336687</v>
+        <v>29.943928172545242</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>33.765738025574876</v>
+        <v>29.850020686396505</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>56.470159054439932</v>
+        <v>49.92147408898326</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RiskTransfer/riskTransfer.tab.xlsx
+++ b/Results/RiskTransfer/riskTransfer.tab.xlsx
@@ -703,13 +703,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -730,10 +733,10 @@
         <v>93</v>
       </c>
       <c r="C2">
-        <v>129.6023780492273</v>
+        <v>137.17418882357597</v>
       </c>
       <c r="D2">
-        <v>132.40807169563288</v>
+        <v>138.17901480421341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,10 +747,10 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>185.65195267417758</v>
+        <v>193.83338953601515</v>
       </c>
       <c r="D3">
-        <v>184.91666272152591</v>
+        <v>191.20336357915122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,10 +761,10 @@
         <v>93</v>
       </c>
       <c r="C4">
-        <v>56.049574624950282</v>
+        <v>56.659200712439173</v>
       </c>
       <c r="D4">
-        <v>52.508591025893026</v>
+        <v>53.024348774937806</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.540983599057256</v>
+        <v>3.6348519375013666</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.3175922792480907</v>
+        <v>6.4152898237114693</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,10 +803,10 @@
         <v>94</v>
       </c>
       <c r="C7">
-        <v>103.06300264991499</v>
+        <v>105.08603501331127</v>
       </c>
       <c r="D7">
-        <v>103.18992971448669</v>
+        <v>105.1904403037037</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,10 +817,10 @@
         <v>94</v>
       </c>
       <c r="C8">
-        <v>109.50427737123097</v>
+        <v>111.53189898428613</v>
       </c>
       <c r="D8">
-        <v>109.58272805437952</v>
+        <v>111.58782843745088</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,10 +831,10 @@
         <v>94</v>
       </c>
       <c r="C9">
-        <v>6.4412747213159776</v>
+        <v>6.4458639709748553</v>
       </c>
       <c r="D9">
-        <v>6.3927983398928205</v>
+        <v>6.3973881337471852</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.8476381423157022E-2</v>
+        <v>4.8475837227670127E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7525898757700108</v>
+        <v>0.75204561321728869</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,10 +873,10 @@
         <v>95</v>
       </c>
       <c r="C12">
-        <v>61.728360372035169</v>
+        <v>65.764549365509367</v>
       </c>
       <c r="D12">
-        <v>62.602849771408657</v>
+        <v>66.087015900949879</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,10 +887,10 @@
         <v>95</v>
       </c>
       <c r="C13">
-        <v>85.609885391955288</v>
+        <v>89.662965669430477</v>
       </c>
       <c r="D13">
-        <v>85.786429948824747</v>
+        <v>89.287778187157812</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,10 +901,10 @@
         <v>95</v>
       </c>
       <c r="C14">
-        <v>23.881525019920119</v>
+        <v>23.89841630392111</v>
       </c>
       <c r="D14">
-        <v>23.18358017741609</v>
+        <v>23.200762286207933</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.69794484250402888</v>
+        <v>0.6976540177131767</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.9225304578407676</v>
+        <v>2.9192479068109205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,10 +943,10 @@
         <v>96</v>
       </c>
       <c r="C17">
-        <v>12.561418022325725</v>
+        <v>17.747175238924669</v>
       </c>
       <c r="D17">
-        <v>14.798719196415906</v>
+        <v>18.325129393729185</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,10 +957,10 @@
         <v>96</v>
       </c>
       <c r="C18">
-        <v>60.061809489736966</v>
+        <v>65.85063830915179</v>
       </c>
       <c r="D18">
-        <v>58.930590310146329</v>
+        <v>62.96616024421995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,10 +971,10 @@
         <v>96</v>
       </c>
       <c r="C19">
-        <v>47.500391467411241</v>
+        <v>48.103463070227122</v>
       </c>
       <c r="D19">
-        <v>44.131871113730426</v>
+        <v>44.641030850490765</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.3685203536808146</v>
+        <v>3.4624322197363568</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.0915633526765092</v>
+        <v>7.1978855548954739</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,10 +1013,10 @@
         <v>97</v>
       </c>
       <c r="C22">
-        <v>7.6113737560806651</v>
+        <v>10.784255352051844</v>
       </c>
       <c r="D22">
-        <v>10.320161230524857</v>
+        <v>11.789081332689298</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,10 +1027,10 @@
         <v>97</v>
       </c>
       <c r="C23">
-        <v>11.326947189720215</v>
+        <v>15.116419198144797</v>
       </c>
       <c r="D23">
-        <v>10.591657237068583</v>
+        <v>12.486393241280874</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,10 +1041,10 @@
         <v>97</v>
       </c>
       <c r="C24">
-        <v>3.7155734336395501</v>
+        <v>4.3321638460929535</v>
       </c>
       <c r="D24">
-        <v>0.27149600654372641</v>
+        <v>0.69731190859157621</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.4440774270958237</v>
+        <v>3.6348519375013773</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>92.693025413367067</v>
+        <v>83.90384266697437</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,10 +1083,10 @@
         <v>98</v>
       </c>
       <c r="C27">
-        <v>1.1194023401233892</v>
+        <v>1.164445888481938</v>
       </c>
       <c r="D27">
-        <v>1.2463294046950828</v>
+        <v>1.2688511788743575</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,10 +1097,10 @@
         <v>98</v>
       </c>
       <c r="C28">
-        <v>0.91434988422754826</v>
+        <v>0.9593923441951604</v>
       </c>
       <c r="D28">
-        <v>0.99280056737610556</v>
+        <v>1.0153217973599116</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,10 +1111,10 @@
         <v>98</v>
       </c>
       <c r="C29">
-        <v>-0.20505245589584098</v>
+        <v>-0.20505354428677758</v>
       </c>
       <c r="D29">
-        <v>-0.25352883731897724</v>
+        <v>-0.25352938151444593</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4.8476381423136261E-2</v>
+        <v>4.847583722766835E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>-23.640966020792483</v>
+        <v>-23.640575146495632</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,10 +1153,10 @@
         <v>99</v>
       </c>
       <c r="C32">
-        <v>2.1086819929803302</v>
+        <v>3.212727720846273</v>
       </c>
       <c r="D32">
-        <v>2.9831713923538099</v>
+        <v>3.5351942562867809</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,10 +1167,10 @@
         <v>99</v>
       </c>
       <c r="C33">
-        <v>2.6143422645128793</v>
+        <v>3.717806342797072</v>
       </c>
       <c r="D33">
-        <v>2.7908868213823199</v>
+        <v>3.3426188605244165</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,10 +1181,10 @@
         <v>99</v>
       </c>
       <c r="C34">
-        <v>0.50566027153254911</v>
+        <v>0.505078621950799</v>
       </c>
       <c r="D34">
-        <v>-0.19228457097148999</v>
+        <v>-0.19257539576236438</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.6979448425040391</v>
+        <v>0.69765401771316338</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>138.0264343071122</v>
+        <v>138.12780573023809</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,10 +1223,10 @@
         <v>100</v>
       </c>
       <c r="C37">
-        <v>3.5172414397174676</v>
+        <v>6.4070817427236477</v>
       </c>
       <c r="D37">
-        <v>5.6576364418462255</v>
+        <v>6.9850358975281654</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,10 +1237,10 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>8.0801230148218028</v>
+        <v>11.586640785504228</v>
       </c>
       <c r="D38">
-        <v>6.9489038352311647</v>
+        <v>8.7021627205723764</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C39">
-        <v>4.5628815751043348</v>
+        <v>5.1795590427805802</v>
       </c>
       <c r="D39">
-        <v>1.2912673933849392</v>
+        <v>1.7171268230442109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3.2716141817193956</v>
+        <v>3.4624322197363693</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,68 +1282,54 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>71.700615671678634</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42">
-        <v>140.65834996609317</v>
-      </c>
-      <c r="D42">
-        <v>141.66291049405569</v>
+        <v>66.848011406731771</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>101</v>
       </c>
       <c r="C43">
-        <v>200.45229882503492</v>
+        <v>140.4061895275737</v>
       </c>
       <c r="D43">
-        <v>197.82196726298727</v>
+        <v>141.41101550821116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>101</v>
       </c>
       <c r="C44">
-        <v>59.793948858941746</v>
+        <v>200.25192116985792</v>
       </c>
       <c r="D44">
-        <v>56.159056768931578</v>
+        <v>197.62189521299402</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>101</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>59.845731642284221</v>
       </c>
       <c r="D45">
-        <v>3.6348920900101689</v>
+        <v>56.210879704782855</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
@@ -1349,68 +1338,68 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>6.0790300011547025</v>
+        <v>3.6348519375013666</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47">
-        <v>105.62487454195659</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>105.72925460005186</v>
+        <v>6.0737028986928596</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
       <c r="C48">
-        <v>112.44319792647715</v>
+        <v>105.5125035493419</v>
       </c>
       <c r="D48">
-        <v>112.49910165632733</v>
+        <v>105.61690883973432</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
       <c r="C49">
-        <v>6.8183233845205677</v>
+        <v>112.33936628219462</v>
       </c>
       <c r="D49">
-        <v>6.7698470562754665</v>
+        <v>112.39529573535937</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>102</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>6.8268627328527174</v>
       </c>
       <c r="D50">
-        <v>4.8476328245101286E-2</v>
+        <v>6.7783868956250473</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
@@ -1419,68 +1408,68 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.7109713856511356</v>
+        <v>4.8475837227670127E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52">
-        <v>66.946584512902035</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>67.268974465396894</v>
+        <v>0.7100748780899202</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
       </c>
       <c r="C53">
-        <v>91.803277694919288</v>
+        <v>66.750526828820952</v>
       </c>
       <c r="D53">
-        <v>91.428006236330518</v>
+        <v>67.072993364261464</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
       <c r="C54">
-        <v>24.856693182017253</v>
+        <v>91.634920596053718</v>
       </c>
       <c r="D54">
-        <v>24.159031770933623</v>
+        <v>91.259733113781067</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>24.884393767232766</v>
       </c>
       <c r="D55">
-        <v>0.69766141108362945</v>
+        <v>24.186739749519603</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
@@ -1489,68 +1478,68 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2.8067346125845791</v>
+        <v>0.69765401771316249</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57">
-        <v>19.70625382003055</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>20.284044337402939</v>
+        <v>2.8035805261682456</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
       </c>
       <c r="C58">
-        <v>69.589258505279275</v>
+        <v>19.566729943580182</v>
       </c>
       <c r="D58">
-        <v>66.704578451643727</v>
+        <v>20.144684098384701</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>104</v>
       </c>
       <c r="C59">
-        <v>49.883004685248721</v>
+        <v>69.489747718462922</v>
       </c>
       <c r="D59">
-        <v>46.420534114240787</v>
+        <v>66.605269653531082</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>49.923017774882737</v>
       </c>
       <c r="D60">
-        <v>3.462470571007934</v>
+        <v>46.46058555514638</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
@@ -1559,68 +1548,68 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>6.941182859483698</v>
+        <v>3.4624322197363568</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62">
-        <v>13.73722640663093</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>14.741786934593465</v>
+        <v>6.9355427096764481</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>105</v>
       </c>
       <c r="C63">
-        <v>21.007010586651262</v>
+        <v>13.736695501281089</v>
       </c>
       <c r="D63">
-        <v>18.376679024603632</v>
+        <v>14.741521481918545</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
       <c r="C64">
-        <v>7.2697841800203324</v>
+        <v>21.006399376283849</v>
       </c>
       <c r="D64">
-        <v>3.6348920900101671</v>
+        <v>18.376373419419924</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>7.2697038750027598</v>
       </c>
       <c r="D65">
-        <v>3.6348920900101653</v>
+        <v>3.634851937501379</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>105</v>
@@ -1629,68 +1618,68 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>49.999999999999993</v>
+        <v>3.6348519375013808</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67">
-        <v>1.4814016921377671</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1.5857817502330538</v>
+        <v>50.000000000000014</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>106</v>
       </c>
       <c r="C68">
-        <v>1.5783543486280185</v>
+        <v>1.4813512275435015</v>
       </c>
       <c r="D68">
-        <v>1.6342580784781797</v>
+        <v>1.5857565179359212</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
       </c>
       <c r="C69">
-        <v>9.6952656490251421E-2</v>
+        <v>1.5783029019988379</v>
       </c>
       <c r="D69">
-        <v>4.8476328245125933E-2</v>
+        <v>1.6342323551635896</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>9.6951674455336478E-2</v>
       </c>
       <c r="D70">
-        <v>4.8476328245125488E-2</v>
+        <v>4.847583722766835E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
@@ -1699,68 +1688,68 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>49.999999999999773</v>
+        <v>4.8475837227668128E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72">
-        <v>4.1031103002131051</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>4.4255002527079608</v>
+        <v>49.999999999999886</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
       <c r="C73">
-        <v>5.4984331223803586</v>
+        <v>4.1029571343218008</v>
       </c>
       <c r="D73">
-        <v>5.1231616637915893</v>
+        <v>4.4254236697623091</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
       <c r="C74">
-        <v>1.3953228221672536</v>
+        <v>5.4982651697481293</v>
       </c>
       <c r="D74">
-        <v>0.69766141108362856</v>
+        <v>5.1230776874754733</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1.3953080354263285</v>
       </c>
       <c r="D75">
-        <v>0.697661411083625</v>
+        <v>0.69765401771316427</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
@@ -1769,68 +1758,68 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>49.999999999999872</v>
+        <v>0.69765401771316427</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77">
-        <v>8.1527144142800676</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>8.7305049316524528</v>
+        <v>49.999999999999993</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78">
-        <v>15.077655556295955</v>
+        <v>8.1523871394158025</v>
       </c>
       <c r="D78">
-        <v>12.192975502660397</v>
+        <v>8.730341294220322</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
       <c r="C79">
-        <v>6.9249411420158875</v>
+        <v>15.077251578888543</v>
       </c>
       <c r="D79">
-        <v>3.4624705710079446</v>
+        <v>12.192773513956693</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>6.9248644394727403</v>
       </c>
       <c r="D80">
-        <v>3.4624705710079429</v>
+        <v>3.4624322197363711</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
@@ -1839,68 +1828,68 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>49.999999999999986</v>
+        <v>3.4624322197363693</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82">
-        <v>129.6023780492273</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>89.061221761561512</v>
+        <v>49.999999999999986</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>109</v>
       </c>
       <c r="C83">
-        <v>185.65195267417758</v>
+        <v>137.17418882357597</v>
       </c>
       <c r="D83">
-        <v>114.97094260490947</v>
+        <v>89.061221761561512</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>109</v>
       </c>
       <c r="C84">
-        <v>56.049574624950282</v>
+        <v>193.83338953601515</v>
       </c>
       <c r="D84">
-        <v>25.909720843347955</v>
+        <v>114.97094260490947</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>56.659200712439173</v>
       </c>
       <c r="D85">
-        <v>30.139853781602326</v>
+        <v>25.909720843347955</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
@@ -1909,68 +1898,68 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>53.773563819672013</v>
+        <v>30.749479869091218</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87">
-        <v>140.65834996609317</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>78.166003839063848</v>
+        <v>54.270938316184832</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
       <c r="C88">
-        <v>200.45229882503492</v>
+        <v>140.4061895275737</v>
       </c>
       <c r="D88">
-        <v>108.10993201160909</v>
+        <v>77.914520505932487</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
       <c r="C89">
-        <v>59.793948858941746</v>
+        <v>200.25192116985792</v>
       </c>
       <c r="D89">
-        <v>29.943928172545242</v>
+        <v>107.9104518401918</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>110</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>59.845731642284221</v>
       </c>
       <c r="D90">
-        <v>29.850020686396505</v>
+        <v>29.995931334259311</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>110</v>
@@ -1979,7 +1968,21 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>49.92147408898326</v>
+        <v>29.849800308024911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>49.877910235012358</v>
       </c>
     </row>
   </sheetData>
